--- a/sputnik/personal/uch/uch333.xlsx
+++ b/sputnik/personal/uch/uch333.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -34,13 +31,25 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №333</t>
+  </si>
+  <si>
+    <t>Оплачены пени за просрочку оплаты взноса 2018</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взноса 2018 на 483 дня</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +61,21 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -71,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -118,37 +142,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -165,16 +163,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,10 +488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -499,10 +505,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -511,11 +519,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>10176.81</v>
@@ -523,11 +531,11 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>43586</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
         <v>10032.33</v>
@@ -535,33 +543,48 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>43857</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
+      <c r="A5" s="9">
+        <v>43632</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="7">
-        <v>10177</v>
+      <c r="D5" s="6">
+        <v>1852.18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="9">
+        <v>43857</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7">
+        <v>10177</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="13">
+        <v>43857</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>4915.3999999999996</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/sputnik/personal/uch/uch333.xlsx
+++ b/sputnik/personal/uch/uch333.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взноса 2018 на 483 дня</t>
+  </si>
+  <si>
+    <t>Оплачен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взноса 2019 на 225 дн.</t>
   </si>
 </sst>
 </file>
@@ -81,7 +87,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +97,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -180,7 +192,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -488,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -550,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="D5" s="18">
         <v>1852.18</v>
       </c>
     </row>
@@ -573,16 +588,51 @@
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="17">
         <v>4915.3999999999996</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="15">
+        <v>43963</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6">
+        <v>10032.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>43963</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="16">
+        <v>2457.92</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
+        <f>SUM(C3:C9)</f>
+        <v>27582.46</v>
+      </c>
+      <c r="D10" s="7">
+        <f>SUM(D3:D9)</f>
+        <v>22061.510000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+      <c r="D11" s="7">
+        <f>SUM(D10,-C10)</f>
+        <v>-5520.9499999999971</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch333.xlsx
+++ b/sputnik/personal/uch/uch333.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взноса 2019 на 225 дн.</t>
+  </si>
+  <si>
+    <t>Начислен взнос 2020/2021</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2020/2021</t>
   </si>
 </sst>
 </file>
@@ -158,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -196,6 +202,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -503,10 +512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -618,20 +627,46 @@
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>43952</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C10" s="7">
-        <f>SUM(C3:C9)</f>
-        <v>27582.46</v>
-      </c>
-      <c r="D10" s="7">
-        <f>SUM(D3:D9)</f>
-        <v>22061.510000000002</v>
-      </c>
+        <v>11287.31</v>
+      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>44011</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7">
-        <f>SUM(D10,-C10)</f>
-        <v>-5520.9499999999971</v>
+        <v>10033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7">
+        <f>SUM(C3:C11)</f>
+        <v>38869.769999999997</v>
+      </c>
+      <c r="D12" s="6">
+        <f>SUM(D3:D11)</f>
+        <v>32094.510000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+      <c r="D13" s="7">
+        <f>SUM(D12,-C12)</f>
+        <v>-6775.2599999999948</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch333.xlsx
+++ b/sputnik/personal/uch/uch333.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -512,10 +512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -651,22 +651,34 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7">
-        <f>SUM(C3:C11)</f>
+      <c r="A12" s="15">
+        <v>44039</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7">
+        <f>SUM(C3:C12)</f>
         <v>38869.769999999997</v>
       </c>
-      <c r="D12" s="6">
-        <f>SUM(D3:D11)</f>
-        <v>32094.510000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="6"/>
       <c r="D13" s="7">
-        <f>SUM(D12,-C12)</f>
-        <v>-6775.2599999999948</v>
+        <f>SUM(D3:D12)</f>
+        <v>33349.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+      <c r="D14" s="7">
+        <f>SUM(D13,-C13)</f>
+        <v>-5520.2599999999948</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch333.xlsx
+++ b/sputnik/personal/uch/uch333.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2020/2021</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -512,10 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -663,22 +666,34 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7">
-        <f>SUM(C3:C12)</f>
-        <v>38869.769999999997</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="A13" s="15">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>12036.3</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7">
+        <f>SUM(C3:C13)</f>
+        <v>50906.069999999992</v>
+      </c>
+      <c r="D14" s="7">
         <f>SUM(D3:D12)</f>
         <v>33349.51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
-      <c r="D14" s="7">
-        <f>SUM(D13,-C13)</f>
-        <v>-5520.2599999999948</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="7">
+        <f>SUM(D14,-C14)</f>
+        <v>-17556.55999999999</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch333.xlsx
+++ b/sputnik/personal/uch/uch333.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2021/2022</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взноса 2021 на 70 дн.</t>
   </si>
 </sst>
 </file>
@@ -167,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -208,6 +214,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -515,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A14" sqref="A14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -678,22 +685,46 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7">
-        <f>SUM(C3:C13)</f>
-        <v>50906.069999999992</v>
-      </c>
+      <c r="A14" s="15">
+        <v>44540</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="7">
-        <f>SUM(D3:D12)</f>
-        <v>33349.51</v>
+        <v>11287</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="6"/>
-      <c r="D15" s="7">
-        <f>SUM(D14,-C14)</f>
-        <v>-17556.55999999999</v>
+      <c r="A15" s="20">
+        <v>44540</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="16">
+        <v>790.09</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7">
+        <f>SUM(C3:C15)</f>
+        <v>51696.159999999989</v>
+      </c>
+      <c r="D16" s="7">
+        <f>SUM(D3:D15)</f>
+        <v>44636.51</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="7">
+        <f>SUM(D16,-C16)</f>
+        <v>-7059.6499999999869</v>
       </c>
     </row>
   </sheetData>
